--- a/docs/Mapping_casi_uso/cittadinanza/Citt_051.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_051.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -419,6 +419,9 @@
     <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
+    <t>evento.datiEventoCittadinanza.tipoDichiarante,in,(2,3)</t>
+  </si>
+  <si>
     <t>Padre</t>
   </si>
   <si>
@@ -426,6 +429,9 @@
   </si>
   <si>
     <t>evento.datiEventoCittadinanza.tipoDichiarante,in,(2,4)</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza.tipoDichiarante,in,(1,3)</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3127,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115">
@@ -3150,7 +3156,7 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
@@ -3173,7 +3179,7 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117">
@@ -3196,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
@@ -3219,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119">
@@ -3242,7 +3248,7 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120">
@@ -3265,7 +3271,7 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121">
@@ -3288,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122">
@@ -3311,7 +3317,7 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
@@ -3334,7 +3340,7 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124">
@@ -3357,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
@@ -3380,7 +3386,7 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
@@ -3403,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
@@ -3426,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
@@ -3449,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
@@ -3472,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
@@ -3495,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
@@ -3518,7 +3524,7 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
@@ -3541,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
@@ -3564,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
@@ -3587,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
@@ -3610,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
@@ -3633,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
@@ -3656,7 +3662,7 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138">
@@ -3679,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
@@ -3702,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140">
@@ -3725,7 +3731,7 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141">
@@ -3748,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
@@ -3771,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143">
@@ -3794,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144">
@@ -3817,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145">
@@ -3840,12 +3846,12 @@
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>46</v>
@@ -3854,7 +3860,7 @@
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>48</v>
@@ -3863,12 +3869,12 @@
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>50</v>
@@ -3877,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>51</v>
@@ -3886,12 +3892,12 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>52</v>
@@ -3900,7 +3906,7 @@
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>53</v>
@@ -3909,12 +3915,12 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>54</v>
@@ -3923,7 +3929,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>55</v>
@@ -3932,12 +3938,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>56</v>
@@ -3946,7 +3952,7 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>57</v>
@@ -3955,12 +3961,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>58</v>
@@ -3969,7 +3975,7 @@
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>59</v>
@@ -3978,12 +3984,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>60</v>
@@ -3992,7 +3998,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>61</v>
@@ -4001,12 +4007,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>62</v>
@@ -4015,7 +4021,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>63</v>
@@ -4024,12 +4030,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>64</v>
@@ -4038,7 +4044,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>65</v>
@@ -4047,12 +4053,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>66</v>
@@ -4061,7 +4067,7 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>67</v>
@@ -4070,12 +4076,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>68</v>
@@ -4084,7 +4090,7 @@
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>69</v>
@@ -4093,12 +4099,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>70</v>
@@ -4107,7 +4113,7 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>71</v>
@@ -4116,12 +4122,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>72</v>
@@ -4130,7 +4136,7 @@
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>73</v>
@@ -4139,12 +4145,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>74</v>
@@ -4153,7 +4159,7 @@
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>75</v>
@@ -4162,12 +4168,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>76</v>
@@ -4176,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>77</v>
@@ -4185,12 +4191,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>78</v>
@@ -4199,7 +4205,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>79</v>
@@ -4208,12 +4214,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>80</v>
@@ -4222,7 +4228,7 @@
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>81</v>
@@ -4231,12 +4237,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>82</v>
@@ -4245,7 +4251,7 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>83</v>
@@ -4254,12 +4260,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>84</v>
@@ -4268,7 +4274,7 @@
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>85</v>
@@ -4277,12 +4283,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>86</v>
@@ -4291,7 +4297,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>87</v>
@@ -4300,12 +4306,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>88</v>
@@ -4314,7 +4320,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>89</v>
@@ -4323,12 +4329,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>90</v>
@@ -4337,7 +4343,7 @@
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>91</v>
@@ -4346,12 +4352,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>92</v>
@@ -4360,7 +4366,7 @@
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>93</v>
@@ -4369,12 +4375,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>94</v>
@@ -4383,7 +4389,7 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>95</v>
@@ -4392,12 +4398,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>96</v>
@@ -4406,7 +4412,7 @@
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>97</v>
@@ -4415,12 +4421,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>98</v>
@@ -4429,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>99</v>
@@ -4438,12 +4444,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>100</v>
@@ -4452,7 +4458,7 @@
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>101</v>
@@ -4461,12 +4467,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>102</v>
@@ -4475,7 +4481,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>103</v>
@@ -4484,12 +4490,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>122</v>
@@ -4498,7 +4504,7 @@
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>123</v>
@@ -4507,12 +4513,12 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>124</v>
@@ -4521,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>125</v>
@@ -4530,12 +4536,12 @@
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>126</v>
@@ -4544,7 +4550,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>127</v>
@@ -4553,12 +4559,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>128</v>
@@ -4567,7 +4573,7 @@
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>129</v>
@@ -4576,12 +4582,12 @@
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>133</v>
@@ -4590,7 +4596,7 @@
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>134</v>
@@ -4599,12 +4605,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>46</v>
@@ -4613,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>48</v>
@@ -4622,12 +4628,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>50</v>
@@ -4636,7 +4642,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>51</v>
@@ -4645,12 +4651,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>52</v>
@@ -4659,7 +4665,7 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>53</v>
@@ -4668,12 +4674,12 @@
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>54</v>
@@ -4682,7 +4688,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>55</v>
@@ -4691,12 +4697,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>56</v>
@@ -4705,7 +4711,7 @@
         <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>57</v>
@@ -4714,12 +4720,12 @@
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>58</v>
@@ -4728,7 +4734,7 @@
         <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>59</v>
@@ -4737,12 +4743,12 @@
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>60</v>
@@ -4751,7 +4757,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>61</v>
@@ -4760,12 +4766,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>62</v>
@@ -4774,7 +4780,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>63</v>
@@ -4783,12 +4789,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>64</v>
@@ -4797,7 +4803,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>65</v>
@@ -4806,12 +4812,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>66</v>
@@ -4820,7 +4826,7 @@
         <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>67</v>
@@ -4829,12 +4835,12 @@
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>68</v>
@@ -4843,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>69</v>
@@ -4852,12 +4858,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>70</v>
@@ -4866,7 +4872,7 @@
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>71</v>
@@ -4875,12 +4881,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>72</v>
@@ -4889,7 +4895,7 @@
         <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>73</v>
@@ -4898,12 +4904,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>74</v>
@@ -4912,7 +4918,7 @@
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>75</v>
@@ -4921,12 +4927,12 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>76</v>
@@ -4935,7 +4941,7 @@
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>77</v>
@@ -4944,12 +4950,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>78</v>
@@ -4958,7 +4964,7 @@
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>79</v>
@@ -4967,12 +4973,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>80</v>
@@ -4981,7 +4987,7 @@
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>81</v>
@@ -4990,12 +4996,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>82</v>
@@ -5004,7 +5010,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>83</v>
@@ -5013,12 +5019,12 @@
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>84</v>
@@ -5027,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>85</v>
@@ -5036,12 +5042,12 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>86</v>
@@ -5050,7 +5056,7 @@
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>87</v>
@@ -5059,12 +5065,12 @@
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>88</v>
@@ -5073,7 +5079,7 @@
         <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>89</v>
@@ -5082,12 +5088,12 @@
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>90</v>
@@ -5096,7 +5102,7 @@
         <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>91</v>
@@ -5105,12 +5111,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>92</v>
@@ -5119,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>93</v>
@@ -5128,12 +5134,12 @@
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>94</v>
@@ -5142,7 +5148,7 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>95</v>
@@ -5151,12 +5157,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>96</v>
@@ -5165,7 +5171,7 @@
         <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>97</v>
@@ -5174,12 +5180,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>98</v>
@@ -5188,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>99</v>
@@ -5197,12 +5203,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>100</v>
@@ -5211,7 +5217,7 @@
         <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>101</v>
@@ -5220,12 +5226,12 @@
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>102</v>
@@ -5234,7 +5240,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>103</v>
@@ -5243,12 +5249,12 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>122</v>
@@ -5257,7 +5263,7 @@
         <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>123</v>
@@ -5266,12 +5272,12 @@
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>124</v>
@@ -5280,7 +5286,7 @@
         <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>125</v>
@@ -5289,12 +5295,12 @@
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>126</v>
@@ -5303,7 +5309,7 @@
         <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>127</v>
@@ -5312,12 +5318,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>128</v>
@@ -5326,7 +5332,7 @@
         <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>129</v>
@@ -5335,15 +5341,15 @@
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
@@ -5352,7 +5358,7 @@
         <v>39</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
